--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 09:47:22</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 11:11:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 11:11:28</t>
+    <t>Informação extraída do SIGBM: 03/12/2022 - 11:53:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220804.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/12/2022 - 11:53:25</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 12:08:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220804.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222804.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 12:08:03</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 12:28:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222804.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223804.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 12:28:08</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 12:38:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223804.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 12:38:44</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 12:47:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 12:47:24</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 12:56:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225604.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221304.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 12:56:28</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 01:13:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221304.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223404.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 01:13:31</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 01:34:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223404.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 01:34:37</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 01:46:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224604.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225504.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 01:46:46</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 01:55:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225504.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220804.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 01:55:50</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 02:08:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220804.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222504.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 02:08:52</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 02:25:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222504.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223404.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 02:25:05</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 02:34:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223404.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224204.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 02:34:45</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 02:42:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224204.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225104.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 02:42:46</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 02:51:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225104.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220004.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 02:51:19</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 03:00:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220004.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222204.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 03:00:21</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 03:22:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222204.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 03:22:02</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 03:37:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224804.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 03:37:57</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 03:48:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224804.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 03:48:07</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 03:56:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225604.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 03:56:51</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 04:09:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222304.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 04:09:01</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 04:23:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222304.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223204.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 04:23:26</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 04:32:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223204.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224104.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 04:32:15</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 04:41:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224104.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 04:41:02</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 04:49:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225804.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 04:49:48</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 04:58:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225804.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221804.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 04:58:37</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 05:18:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221804.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223504.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 05:18:51</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 05:35:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223504.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224504.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 05:35:31</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 05:45:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224504.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225404.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 05:45:07</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 05:54:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225404.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220304.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 05:54:42</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 06:03:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220304.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222104.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 06:03:03</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 06:21:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222104.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223004.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 06:21:34</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 06:30:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223004.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 06:30:26</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 06:39:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 06:39:57</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 06:49:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 06:49:13</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 06:57:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221404.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 06:57:27</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 07:14:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221404.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223004.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 07:14:21</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 07:30:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223004.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224104.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 07:30:55</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 07:41:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224104.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 07:41:08</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 07:49:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225804.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 07:49:34</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 07:58:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225804.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221204.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 07:58:39</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 08:12:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221204.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222404.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 08:12:10</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 08:24:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222404.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223304.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 08:24:05</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 08:33:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223304.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224104.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 08:33:09</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 08:41:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224104.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225004.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 08:41:42</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 08:50:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225004.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 08:50:44</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 08:59:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223004.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 08:59:17</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 09:30:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223004.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225804.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 09:30:00</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 09:58:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225804.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 09:58:06</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 10:19:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223304.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 10:19:22</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 10:33:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223304.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224204.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 10:33:14</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 10:42:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224204.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225104.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 10:42:03</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 10:51:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225104.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 10:51:07</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 10:59:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221504.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 10:59:45</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 11:15:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221504.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222804.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 11:15:47</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 11:28:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222804.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 11:28:35</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 11:37:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 11:37:55</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 11:46:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224604.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225504.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 11:46:37</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 11:55:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225504.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 11:55:32</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 12:09:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 12:09:00</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 12:26:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222604.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223504.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 12:26:23</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 12:35:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223504.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224404.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 12:35:37</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 12:44:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224404.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225304.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 12:44:50</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 12:53:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225304.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220204.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 12:53:54</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 01:02:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220204.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 01:02:13</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 01:29:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 01:29:30</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 01:47:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 01:47:47</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 01:57:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221104.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 01:57:01</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 02:11:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221104.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 02:11:18</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 02:27:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 02:27:05</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 02:36:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223604.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224504.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 02:36:23</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 02:45:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224504.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225404.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 02:45:18</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 02:54:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225404.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220304.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 02:54:28</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 03:03:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220304.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 03:03:17</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 03:27:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 03:27:16</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 03:39:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224804.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 03:39:37</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 03:48:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224804.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 03:48:30</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 03:57:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 03:57:23</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 04:09:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222104.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 04:09:39</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 04:21:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222104.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223004.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 04:21:18</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 04:30:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223004.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 04:30:30</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 04:39:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224804.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 04:39:18</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 04:48:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224804.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 04:48:06</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 04:57:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221304.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 04:57:02</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 05:13:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221304.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 05:13:04</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 05:29:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223804.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 05:29:56</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 05:38:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223804.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 05:38:26</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 05:46:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224604.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 05:46:45</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 05:56:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225604.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 05:56:36</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 06:09:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222304.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 06:09:47</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 06:23:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222304.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223304.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 06:23:49</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 06:33:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223304.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224204.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 06:33:03</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 06:42:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224204.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225104.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 06:42:01</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 06:51:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225104.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 06:51:03</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 06:59:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 06:59:53</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 07:16:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221604.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223004.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 07:16:15</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 07:30:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223004.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223904.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 07:30:41</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 07:39:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223904.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224804.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 07:39:14</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 07:48:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224804.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 07:48:40</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 07:57:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221204.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 07:57:01</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 08:12:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221204.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 08:12:18</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 08:27:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 08:27:58</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 08:37:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224604.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 08:37:43</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 08:46:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-04.xlsx
+++ b/sigbm_download_2022-12-04.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224604.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225504.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 08:46:33</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 08:55:21</t>
   </si>
   <si>
     <t>ID Barragem</t>
